--- a/Outils&Platformes/IWORK_LIEN_DOMAINE_APPLI.xlsx
+++ b/Outils&Platformes/IWORK_LIEN_DOMAINE_APPLI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LP_SID\Outils&amp;Platformes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8E6161-A8E5-4814-A67D-8DAC53F2C53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3943B24-ACCB-46C6-A030-1528F3B7C04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">appli_data!$A$2:$B$232</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentManualCount="4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1259,48 +1259,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1649,11 +1649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection sqref="A1:B232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3524,6 +3524,39 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="5ee95cb6-b898-44ba-b265-8c58990d52a3">
+      <UserInfo>
+        <DisplayName>TRINTY Sandrine</DisplayName>
+        <AccountId>266</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>DUCAROIS Quentin</DisplayName>
+        <AccountId>267</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>SOUNY Benjamin</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>FAURE Eric</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cdd365d8-d524-4901-8278-471b5279746b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5ee95cb6-b898-44ba-b265-8c58990d52a3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1A65C35B7EC50408412A8779AB86E18" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="41e004a090a06d4a8b9af3829183d54a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cdd365d8-d524-4901-8278-471b5279746b" xmlns:ns3="5ee95cb6-b898-44ba-b265-8c58990d52a3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="779cdc9de0af4c075d64f223604de92b" ns2:_="" ns3:_="">
     <xsd:import namespace="cdd365d8-d524-4901-8278-471b5279746b"/>
@@ -3760,39 +3793,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="5ee95cb6-b898-44ba-b265-8c58990d52a3">
-      <UserInfo>
-        <DisplayName>TRINTY Sandrine</DisplayName>
-        <AccountId>266</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>DUCAROIS Quentin</DisplayName>
-        <AccountId>267</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>SOUNY Benjamin</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>FAURE Eric</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cdd365d8-d524-4901-8278-471b5279746b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5ee95cb6-b898-44ba-b265-8c58990d52a3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3803,6 +3803,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D86892D5-77DD-4AAC-9FBE-281C3ACB5FD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5ee95cb6-b898-44ba-b265-8c58990d52a3"/>
+    <ds:schemaRef ds:uri="cdd365d8-d524-4901-8278-471b5279746b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2064F5F3-4E7E-4DAD-8981-F39E5130FBBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3821,17 +3832,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D86892D5-77DD-4AAC-9FBE-281C3ACB5FD1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5ee95cb6-b898-44ba-b265-8c58990d52a3"/>
-    <ds:schemaRef ds:uri="cdd365d8-d524-4901-8278-471b5279746b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4053D1A-1735-41C3-91A7-24C3C6E1CE81}">
   <ds:schemaRefs>
